--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488EA36-28CF-4E51-9376-E7B746CE8A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D25E0-06F1-4112-B9C5-1C448E64401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>{data:{ univ: {"100" : { unvname:"", "unvaddress":"" }}    },success:true,reason:null}</t>
   </si>
   <si>
-    <t>{username,password,emaild,dob,universityCode}</t>
-  </si>
-  <si>
     <t>{data:{ sessionkey: " XX", "userdetails": "uu" },success:true,reason:null}</t>
   </si>
   <si>
@@ -187,6 +184,15 @@
   </si>
   <si>
     <t>login -&gt; ask a question screen</t>
+  </si>
+  <si>
+    <t>{
+    "username":"vamsiirr",
+    "password":"vamsiirr",
+    "emailid":"vamsoir9rr@gmail.com",
+    "universitycode":"92",
+    "dob":"1997-07-23"
+}</t>
   </si>
 </sst>
 </file>
@@ -729,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,12 +769,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -788,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -796,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -810,13 +816,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,15 +843,15 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -856,10 +862,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -870,7 +876,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -881,19 +887,19 @@
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>0</v>
@@ -911,10 +917,10 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -927,20 +933,20 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -949,37 +955,37 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="185.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EA5B18-3AD6-4C08-9419-C4BAD153FE79}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,37 +1010,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D25E0-06F1-4112-B9C5-1C448E64401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF1E51-566D-4543-9C74-1A112D680475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
-    <sheet name="Usecases" sheetId="2" r:id="rId2"/>
+    <sheet name="screens" sheetId="3" r:id="rId2"/>
+    <sheet name="Usecases" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -194,15 +196,179 @@
     "dob":"1997-07-23"
 }</t>
   </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/questions/updwnvt</t>
+  </si>
+  <si>
+    <t>{
+    "userid":6,
+    "parentid":3,
+    "updwnvt":0,
+    "ctype":"Q"
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getQuestionsFeed</t>
+  </si>
+  <si>
+    <t>{
+    "unvcode":92
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "eqid": 1,
+            "userid": 6,
+            "question": "How do the college manage marks ",
+            "doq": 1657107858000,
+            "updatedat": 1657107858000,
+            "ctype": "Q",
+            "active": 1,
+            "tags": ";1;2;",
+            "username": "vamsi",
+            "avatarid": 1,
+            "upvotes": 0,
+            "downvotes": 0
+        },
+        {
+            "eqid": 2,
+            "userid": 6,
+            "question": "&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ",
+            "doq": 1657107895000,
+            "updatedat": 1657107895000,
+            "ctype": "Q",
+            "active": 1,
+            "tags": ";1;2;3;",
+            "username": "vamsi",
+            "avatarid": 1,
+            "upvotes": 0,
+            "downvotes": 0
+        },
+        {
+            "eqid": 3,
+            "userid": 6,
+            "question": "&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ",
+            "doq": 1657107951000,
+            "updatedat": 1657107951000,
+            "ctype": "Q",
+            "active": 1,
+            "tags": ";1;2;3;",
+            "username": "vamsi",
+            "avatarid": 1,
+            "upvotes": 0,
+            "downvotes": 0
+        },
+        {
+            "eqid": 4,
+            "userid": 6,
+            "question": "&lt;p&gt;Hello how &lt;/p&gt;",
+            "doq": 1657382758000,
+            "updatedat": 1657382758000,
+            "ctype": "Q",
+            "active": 1,
+            "tags": ";1;2;3;",
+            "username": "vamsi",
+            "avatarid": 1,
+            "upvotes": 0,
+            "downvotes": 0
+        }
+    ],
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>dislike</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/comments/addComment</t>
+  </si>
+  <si>
+    <t>{
+    "userid":11,
+    "parentid":2,
+    "ctype":"Q",
+    "comment":"through portal !!! "
+}</t>
+  </si>
+  <si>
+    <t>Likedislike</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/comments/updateComment</t>
+  </si>
+  <si>
+    <t>{
+    "cid":2,
+    "comment":"thorugh website !!!"
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/comments/deleteComment</t>
+  </si>
+  <si>
+    <t>{
+    "cid":2
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,10 +441,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,17 +456,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -321,21 +499,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>248921</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>280671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2390140</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1689045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED9F356-654F-DA40-EC57-46D54560F04C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6E6B7B-1F7D-4080-B752-F22309C79132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -357,8 +535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="858521" y="2858771"/>
-          <a:ext cx="2141219" cy="1408374"/>
+          <a:off x="862331" y="11960226"/>
+          <a:ext cx="2139314" cy="1408374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -371,21 +549,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2148840</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1464945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D3C7C7-463D-DF9E-2E78-2BAE9429F8CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826FAFE0-0CEA-4517-8A35-5EFEF6F2AD4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -407,8 +585,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1181100" y="5516880"/>
-          <a:ext cx="1577340" cy="1183005"/>
+          <a:off x="1181100" y="13879830"/>
+          <a:ext cx="1581150" cy="1183005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -417,25 +595,20 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>154214</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2748643</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2131786</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2480038" cy="1977572"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D0948D-7519-4105-80A0-FF3E05C977BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9291FE-4AB3-4EAD-9809-EA3AF1886EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -457,8 +630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="874486" y="6622143"/>
-          <a:ext cx="2481943" cy="1977572"/>
+          <a:off x="876300" y="15577094"/>
+          <a:ext cx="2480038" cy="1977572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,7 +639,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -733,314 +906,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="57.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="118.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="102.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="57.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" ht="252" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="s">
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" ht="147" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="185.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="E13" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="147" x14ac:dyDescent="0.35">
+      <c r="B17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="147" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="C18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="19" spans="2:5" ht="147" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="23" spans="2:5" ht="151.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:5" ht="185.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EA5B18-3AD6-4C08-9419-C4BAD153FE79}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08247516-65B4-413C-AEED-2347E8B6A214}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EA5B18-3AD6-4C08-9419-C4BAD153FE79}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF1E51-566D-4543-9C74-1A112D680475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FF739-65C2-493C-9676-C574EC05A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Usecases" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -325,24 +324,31 @@
     "cid":2
 }</t>
   </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/blog/saveBlog</t>
+  </si>
+  <si>
+    <t>{
+    "id":null,
+    "title":"How to crabs crawl",
+    "content":"e were making a sand castle on the Wonderopolis beach the other day when we saw a group of crabs gathering nearby. The group appeared to consist of an adult crab and several younger crabs. Our curiosity got the best of us, so we decided to eavesdrop to try to hear what they were talking about. Kid Crab: Mrs. Crab? What are we going to learn about in class today?Mrs. Crab: Well, Patty, I'm so glad you asked. Today, we're going to learn why human beings walk frontways.Kid Crab: That's awesome, Mrs. Crab! I've always WONDERed about that. They look so funny when they walk down the beach like that!Apparently, we stumbled upon a class of crabs with their teacher about to learn more about human beings and the way we move. From their perspective, we must look as funny to crabs as they do to us. Let's take a closer look at why crabs move the way they do.If you've ever seen crabs moving along the shoreline, you've probably noticed that they move differently than human beings. Instead of walking forward on two legs, they move quickly sideways in a flurry with their multiple legs.Crabs move sideways for the same reason humans move forward: that's how their bodies were built to move. Human beings have knees that bend forward. Therefore, it's only natural that we would move forward with each step we take.Crabs, on the other hand, have multiple legs and they're located on the sides of their bodies. In addition, their leg joints bend outward. Given this particular design of their bodies, it's most efficient and natural for crabs to move sideways.Not all crabs move sideways, however. There are a few species of crabs that can move forward, because their bodies are shaped in a way that makes them longer than they are wide. Examples of these crabs include raninids, Libinia emarginata, and Mictyris platycheles.In addition, most crabs have a front pair of legs that are mainly used for defense and grasping food. These front legs can be used to move forward, but doing so is not very efficient and doesn't allow the crab to move quickly. Thus, most crabs move sideways since they can move quickly and most efficiently that way."
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -443,7 +449,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -463,18 +469,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -908,268 +914,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="118.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="102.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="57.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="118.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="102.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="57.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="2:8" ht="252" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="2:8" ht="252" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="2:8" ht="147" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B16" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="147" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="147" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="147" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="23" spans="2:5" ht="151.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:5" ht="185.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="2:8" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="185.7" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
     <hyperlink ref="B18" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
     <hyperlink ref="B19" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1181,18 +1202,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1224,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1229,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1245,7 +1266,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1267,7 +1288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1285,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="9" t="s">
         <v>44</v>
@@ -1320,62 +1341,62 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>59</v>
       </c>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FF739-65C2-493C-9676-C574EC05A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17079581-3A89-4507-B496-CD809899A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -331,10 +331,57 @@
     <t>http://localhost:8080/quoraStudent/blog/saveBlog</t>
   </si>
   <si>
+    <t>http://localhost:8080/quoraStudent/answer/addAnswer</t>
+  </si>
+  <si>
+    <t>{
+    "userid":11,
+    "ctype":"Q",
+    "content":"dont know :) how ",
+    "eqid":2
+}</t>
+  </si>
+  <si>
     <t>{
     "id":null,
+    "userid":2,
     "title":"How to crabs crawl",
     "content":"e were making a sand castle on the Wonderopolis beach the other day when we saw a group of crabs gathering nearby. The group appeared to consist of an adult crab and several younger crabs. Our curiosity got the best of us, so we decided to eavesdrop to try to hear what they were talking about. Kid Crab: Mrs. Crab? What are we going to learn about in class today?Mrs. Crab: Well, Patty, I'm so glad you asked. Today, we're going to learn why human beings walk frontways.Kid Crab: That's awesome, Mrs. Crab! I've always WONDERed about that. They look so funny when they walk down the beach like that!Apparently, we stumbled upon a class of crabs with their teacher about to learn more about human beings and the way we move. From their perspective, we must look as funny to crabs as they do to us. Let's take a closer look at why crabs move the way they do.If you've ever seen crabs moving along the shoreline, you've probably noticed that they move differently than human beings. Instead of walking forward on two legs, they move quickly sideways in a flurry with their multiple legs.Crabs move sideways for the same reason humans move forward: that's how their bodies were built to move. Human beings have knees that bend forward. Therefore, it's only natural that we would move forward with each step we take.Crabs, on the other hand, have multiple legs and they're located on the sides of their bodies. In addition, their leg joints bend outward. Given this particular design of their bodies, it's most efficient and natural for crabs to move sideways.Not all crabs move sideways, however. There are a few species of crabs that can move forward, because their bodies are shaped in a way that makes them longer than they are wide. Examples of these crabs include raninids, Libinia emarginata, and Mictyris platycheles.In addition, most crabs have a front pair of legs that are mainly used for defense and grasping food. These front legs can be used to move forward, but doing so is not very efficient and doesn't allow the crab to move quickly. Thus, most crabs move sideways since they can move quickly and most efficiently that way."
+}</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/questions/getQuestion</t>
+  </si>
+  <si>
+    <t>{
+    "eqid":1,
+    "ctype":"Q",
+    "userid":11
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "eqid": 1,
+        "userid": 11,
+        "question": "How do the college manage marks ",
+        "doq": 1657107858000,
+        "updatedat": 1657107858000,
+        "ctype": "Q",
+        "active": 1,
+        "tags": ";1;2;",
+        "totalNumberOfLikes": 0,
+        "totalNumberOfDislikes": 1,
+        "totalNumberOfComments": 1,
+        "likedByTheRequestedUser": false,
+        "disLikedByTheRequestedUser": true,
+        "questionOwnedByTheRequestedUser": true
+    },
+    "success": true,
+    "reason": null
 }</t>
   </si>
 </sst>
@@ -342,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +422,15 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,6 +537,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -914,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1226,7 @@
         <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>6</v>
@@ -1178,8 +1235,40 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="1" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="26" spans="2:8" ht="185.7" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
@@ -1188,9 +1277,10 @@
     <hyperlink ref="B18" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
     <hyperlink ref="B19" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
     <hyperlink ref="B21" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
+    <hyperlink ref="B24" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17079581-3A89-4507-B496-CD809899A59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FDD4F-CACE-4D3C-81E4-396BBED2C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,9 @@
         "totalNumberOfComments": 1,
         "likedByTheRequestedUser": false,
         "disLikedByTheRequestedUser": true,
-        "questionOwnedByTheRequestedUser": true
+        "questionOwnedByTheRequestedUser": true,
+        "usernameOfWhoAskedThisQuestion": "vamsiirr",
+        "avataridOfWhoAskedThisQuestion": 1
     },
     "success": true,
     "reason": null
@@ -972,7 +974,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FDD4F-CACE-4D3C-81E4-396BBED2C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C3B8C-AAD8-469D-9E8F-51DFF55B7D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -382,6 +382,119 @@
         "usernameOfWhoAskedThisQuestion": "vamsiirr",
         "avataridOfWhoAskedThisQuestion": 1
     },
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/answer/getAnswersForQuestionOrEntity</t>
+  </si>
+  <si>
+    <t>{
+    "eqid":2,
+    "ctype":"Q",
+    "userid":6
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "aid": 1,
+            "eqid": 2,
+            "doa": 1658926096000,
+            "userid": 6,
+            "ctype": "Q",
+            "updatedat": 1658926096000,
+            "active": 1,
+            "content": "dont know :) ",
+            "answeredByUsername": "vamsi",
+            "answeredByUsernameAvatarid": "1",
+            "totalNumberOfLikes": 0,
+            "totalNumberOfDislikes": 0,
+            "totalNumberOfComments": 0,
+            "likedByTheRequestedUser": false,
+            "disLikedByTheRequestedUser": false,
+            "answerOwnedByTheRequestedUser": false
+        },
+        {
+            "aid": 2,
+            "eqid": 2,
+            "doa": 1658926130000,
+            "userid": 11,
+            "ctype": "Q",
+            "updatedat": 1658926130000,
+            "active": 1,
+            "content": "dont know :) how ",
+            "answeredByUsername": "vamsiirr",
+            "answeredByUsernameAvatarid": "1",
+            "totalNumberOfLikes": 1,
+            "totalNumberOfDislikes": 0,
+            "totalNumberOfComments": 0,
+            "likedByTheRequestedUser": false,
+            "disLikedByTheRequestedUser": false,
+            "answerOwnedByTheRequestedUser": false
+        }
+    ],
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/comments/getCommentsList</t>
+  </si>
+  <si>
+    <t>{
+    "requestingUserId":6,
+    "ctype":"Q",
+    "eqabcid":2
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "cid": 3,
+            "cpid": -1,
+            "userid": 6,
+            "parentid": 2,
+            "ctype": "Q",
+            "comment": "through portal !!! ",
+            "doc": 1657873175000,
+            "updatedat": 1657873175000,
+            "active": 1,
+            "commentedByUsername": "vamsi",
+            "commentedByUsernameAvatarid": 1,
+            "totalNumberOfLikes": 1,
+            "totalNumberOfDislikes": 0,
+            "totalNumberOfComments": 1,
+            "likedByTheRequestedUser": true,
+            "disLikedByTheRequestedUser": false,
+            "commentOwnedByTheRequestedUser": true
+        },
+        {
+            "cid": 4,
+            "cpid": -1,
+            "userid": 11,
+            "parentid": 2,
+            "ctype": "Q",
+            "comment": "through portal !!! ",
+            "doc": 1657873175000,
+            "updatedat": 1657873175000,
+            "active": 1,
+            "commentedByUsername": "vamsiirr",
+            "commentedByUsernameAvatarid": 1,
+            "totalNumberOfLikes": 0,
+            "totalNumberOfDislikes": 0,
+            "totalNumberOfComments": 1,
+            "likedByTheRequestedUser": false,
+            "disLikedByTheRequestedUser": false,
+            "commentOwnedByTheRequestedUser": false
+        }
+    ],
     "success": true,
     "reason": null
 }</t>
@@ -509,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -540,6 +653,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -971,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,35 +1328,35 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="2:8" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="2:8" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="2:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
@@ -1251,38 +1365,74 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="1" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19" t="s">
+    <row r="24" spans="2:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="185.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="2:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
     <hyperlink ref="B18" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
     <hyperlink ref="B19" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
-    <hyperlink ref="B21" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
-    <hyperlink ref="B24" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B28" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B29" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C3B8C-AAD8-469D-9E8F-51DFF55B7D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0CB6DA-82D0-4040-87AB-FE265445A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -499,12 +499,100 @@
     "reason": null
 }</t>
   </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/questions/askAquestion</t>
+  </si>
+  <si>
+    <t>{
+    "userid":6,"text":"&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ","tags":[1,2,3], "ctype":"Q"
+}</t>
+  </si>
+  <si>
+    <t>{  "eqid":2 ,"text":"&lt;h1&gt;UYUYUTUTU&lt;/h1&gt; ","tags":[1] }</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/questions/updateAQuestion</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/questions/deleteQuestion</t>
+  </si>
+  <si>
+    <t>{
+    "eqid":2,
+    "ctype":"Q"
+}</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/event/addAnEvent</t>
+  </si>
+  <si>
+    <t>{
+  "askAquestionDTO":{  "userid":6,"text":"&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ","tags":[1,2,3] },
+  "eventDTO" : {"from":"2020-08-08T00:00:00","to":"2020-09-07T00:00:00"}
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/event/updateAnEvent</t>
+  </si>
+  <si>
+    <t>{
+  "askAquestionDTO":{  "eqid":9 ,"text":"&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ","tags":[1,2] },
+  "eventDTO" : {"eid":9,"from":"2020-08-07T00:00:00","to":"2020-10-07T00:00:00"}
+}</t>
+  </si>
+  <si>
+    <t>{
+      "askAquestionDTO":{  "eqid":9 }
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/event/deleteAnEvent</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "eqid": 10,
+        "userid": 6,
+        "question": "&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ",
+        "doq": 1659940943000,
+        "todate": 1599436800000,
+        "fromdate": 1596844800000,
+        "updatedat": 1659940943000,
+        "ctype": "E",
+        "active": 1,
+        "tags": ";1;2;3;",
+        "totalNumberOfLikes": 0,
+        "totalNumberOfDislikes": 0,
+        "totalNumberOfComments": 0,
+        "likedByTheRequestedUser": false,
+        "disLikedByTheRequestedUser": false,
+        "questionOwnedByTheRequestedUser": false,
+        "usernameOfWhoAskedThisQuestion": "vamsi",
+        "avataridOfWhoAskedThisQuestion": 1
+    },
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "eqid":10,
+    "ctype":"E",
+    "userid":11
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses same as the get question api, the response has to and from date , pz check </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +637,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -622,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -644,16 +755,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1085,16 +1218,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H29"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="35.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="118.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.44140625" customWidth="1"/>
     <col min="4" max="4" width="30.109375" customWidth="1"/>
     <col min="5" max="5" width="102.33203125" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
@@ -1102,277 +1236,291 @@
     <col min="8" max="8" width="57.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="2:8" ht="252" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.4">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="2:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B17" s="16" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B17" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B18" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B19" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="2:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="20" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="16" t="s">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1385,38 +1533,147 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B28" s="16" t="s">
-        <v>70</v>
+    <row r="26" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="B29" s="16" t="s">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="D31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1427,12 +1684,16 @@
     <hyperlink ref="B19" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
     <hyperlink ref="B22" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
     <hyperlink ref="B25" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
-    <hyperlink ref="B28" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
-    <hyperlink ref="B29" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
     <hyperlink ref="B20" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
+    <hyperlink ref="B36" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0CB6DA-82D0-4040-87AB-FE265445A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7505DA2D-EDA7-42D4-85B5-84D5775039E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -586,6 +586,14 @@
   </si>
   <si>
     <t xml:space="preserve">Uses same as the get question api, the response has to and from date , pz check </t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/answer/deleteAnswer</t>
+  </si>
+  <si>
+    <t>{
+    "aid":4
+}</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,6 +1616,20 @@
       </c>
       <c r="E31" s="11" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7505DA2D-EDA7-42D4-85B5-84D5775039E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC19E6-129E-4365-92F4-562406CAF300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -204,78 +204,6 @@
     "parentid":3,
     "updwnvt":0,
     "ctype":"Q"
-}</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/quoraStudent/feed/getQuestionsFeed</t>
-  </si>
-  <si>
-    <t>{
-    "unvcode":92
-}</t>
-  </si>
-  <si>
-    <t>{
-    "data": [
-        {
-            "eqid": 1,
-            "userid": 6,
-            "question": "How do the college manage marks ",
-            "doq": 1657107858000,
-            "updatedat": 1657107858000,
-            "ctype": "Q",
-            "active": 1,
-            "tags": ";1;2;",
-            "username": "vamsi",
-            "avatarid": 1,
-            "upvotes": 0,
-            "downvotes": 0
-        },
-        {
-            "eqid": 2,
-            "userid": 6,
-            "question": "&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ",
-            "doq": 1657107895000,
-            "updatedat": 1657107895000,
-            "ctype": "Q",
-            "active": 1,
-            "tags": ";1;2;3;",
-            "username": "vamsi",
-            "avatarid": 1,
-            "upvotes": 0,
-            "downvotes": 0
-        },
-        {
-            "eqid": 3,
-            "userid": 6,
-            "question": "&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ",
-            "doq": 1657107951000,
-            "updatedat": 1657107951000,
-            "ctype": "Q",
-            "active": 1,
-            "tags": ";1;2;3;",
-            "username": "vamsi",
-            "avatarid": 1,
-            "upvotes": 0,
-            "downvotes": 0
-        },
-        {
-            "eqid": 4,
-            "userid": 6,
-            "question": "&lt;p&gt;Hello how &lt;/p&gt;",
-            "doq": 1657382758000,
-            "updatedat": 1657382758000,
-            "ctype": "Q",
-            "active": 1,
-            "tags": ";1;2;3;",
-            "username": "vamsi",
-            "avatarid": 1,
-            "upvotes": 0,
-            "downvotes": 0
-        }
-    ],
-    "success": true,
-    "reason": null
 }</t>
   </si>
   <si>
@@ -593,6 +521,100 @@
   <si>
     <t>{
     "aid":4
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getQuestionsOrEventFeed</t>
+  </si>
+  <si>
+    <t>{
+    "ctype":"Q",
+    "userid":6,
+    "pageNumber":1,
+    "numberOfPostsRequired":3
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "data": [
+            {
+                "ctype": "Q",
+                "totalNumberOfComments": 0,
+                "eqid": 15,
+                "updatedat": 1660139267000,
+                "question": "&lt;p&gt;fwe&lt;/p&gt;",
+                "active": 1,
+                "userid": 6,
+                "usernameOfWhoAskedThisQuestion": "vamsi",
+                "tags": ";;",
+                "fromdate": null,
+                "totalNumberOfLikes": 0,
+                "todate": null,
+                "disLikedByTheRequestedUser": 0,
+                "totalNumberOfDislikes": 0,
+                "avataridOfWhoAskedThisQuestion": 1,
+                "likedByTheRequestedUser": 0,
+                "doq": 1660139267000,
+                "questionOwnedByTheRequestedUser": 1
+            },
+            {
+                "updatedat": 1660134440000,
+                "totalNumberOfComments": 2,
+                "eqid": 13,
+                "ctype": "Q",
+                "active": 1,
+                "userid": 6,
+                "usernameOfWhoAskedThisQuestion": "vamsi",
+                "fromdate": null,
+                "totalNumberOfLikes": 2,
+                "todate": null,
+                "disLikedByTheRequestedUser": 0,
+                "totalNumberOfDislikes": 0,
+                "question": "&lt;h1&gt;tHIS SHOULD BE THE FIRST&lt;/h1&gt; ",
+                "doq": 1660134440000,
+                "tags": ";1;2;3;",
+                "avataridOfWhoAskedThisQuestion": 1,
+                "likedByTheRequestedUser": 1,
+                "questionOwnedByTheRequestedUser": 1
+            },
+            {
+                "eqid": 11,
+                "ctype": "Q",
+                "totalNumberOfComments": 0,
+                "active": 1,
+                "userid": 6,
+                "question": "&lt;h1&gt;How do the college manage marks&lt;/h1&gt; ",
+                "updatedat": 1659948883000,
+                "usernameOfWhoAskedThisQuestion": "vamsi",
+                "fromdate": null,
+                "totalNumberOfLikes": 0,
+                "doq": 1659948883000,
+                "todate": null,
+                "disLikedByTheRequestedUser": 0,
+                "totalNumberOfDislikes": 0,
+                "tags": ";1;2;3;",
+                "avataridOfWhoAskedThisQuestion": 1,
+                "likedByTheRequestedUser": 0,
+                "questionOwnedByTheRequestedUser": 1
+            }
+        ],
+        "totalPages": 3
+    },
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/user/getInterestpopupStatus?userid=6</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "status": 1
+    },
+    "success": true,
+    "reason": null
 }</t>
   </si>
 </sst>
@@ -741,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -787,9 +809,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1226,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,82 +1403,80 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B13" s="20" t="s">
+    <row r="12" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11" t="s">
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B17" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>6</v>
@@ -1470,10 +1487,10 @@
     </row>
     <row r="19" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>6</v>
@@ -1482,85 +1499,85 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -1569,12 +1586,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -1583,82 +1600,82 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B30" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="11" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>47</v>
-      </c>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>6</v>
@@ -1669,10 +1686,10 @@
     </row>
     <row r="37" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B37" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>6</v>
@@ -1681,41 +1698,56 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="17" t="s">
-        <v>99</v>
-      </c>
+    <row r="38" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
-    <hyperlink ref="B25" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
-    <hyperlink ref="B30" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
-    <hyperlink ref="B31" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
-    <hyperlink ref="B26" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
-    <hyperlink ref="B27" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
-    <hyperlink ref="B35" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
-    <hyperlink ref="B36" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
+    <hyperlink ref="B26" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B32" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B21" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
+    <hyperlink ref="B37" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
+    <hyperlink ref="B12" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1908,22 +1940,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC19E6-129E-4365-92F4-562406CAF300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F54DA9D-1179-44AA-A676-35E3B27AC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -525,14 +525,6 @@
   </si>
   <si>
     <t>http://localhost:8080/quoraStudent/feed/getQuestionsOrEventFeed</t>
-  </si>
-  <si>
-    <t>{
-    "ctype":"Q",
-    "userid":6,
-    "pageNumber":1,
-    "numberOfPostsRequired":3
-}</t>
   </si>
   <si>
     <t>{
@@ -615,6 +607,14 @@
     },
     "success": true,
     "reason": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "ctype":"Q",
+    "userid":6,
+    "pageNumber":1,
+    "numberOfPostsRequired":3,"filterCondition":""
 }</t>
   </si>
 </sst>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,14 +1405,14 @@
     </row>
     <row r="12" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1453,13 +1453,13 @@
         <v>99</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F54DA9D-1179-44AA-A676-35E3B27AC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7BA10-045E-47DF-AFFA-F375C164EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -615,6 +615,278 @@
     "userid":6,
     "pageNumber":1,
     "numberOfPostsRequired":3,"filterCondition":""
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getBlogFeed</t>
+  </si>
+  <si>
+    <t>{
+    "ctype":"B",
+    "userid":21,
+    "pageNumber":1,
+    "numberOfPostsRequired":3,
+    "filterCondition":""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "data": [
+            {
+                "avataridOfWhoAskedThisBlog": 4,
+                "updatedat": 1659252786000,
+                "totalNumberOfComments": 0,
+                "active": 1,
+                "tags": null,
+                "totalNumberOfLikes": 0,
+                "userid": 21,
+                "disLikedByTheRequestedUser": 0,
+                "totalNumberOfDislikes": 0,
+                "blogOwnedByTheRequestedUser": 1,
+                "usernameOfWhoAskedThisBlog": "anvesh",
+                "title": "How to crabs crawl",
+                "content": "21-2",
+                "doblog": 1659252786000,
+                "bid": 2,
+                "likedByTheRequestedUser": 0
+            },
+            {
+                "avataridOfWhoAskedThisBlog": 4,
+                "totalNumberOfComments": 0,
+                "active": 1,
+                "doblog": 1659253535000,
+                "tags": null,
+                "totalNumberOfLikes": 0,
+                "updatedat": 1659253535000,
+                "userid": 21,
+                "disLikedByTheRequestedUser": 0,
+                "totalNumberOfDislikes": 0,
+                "blogOwnedByTheRequestedUser": 1,
+                "content": "21-3",
+                "usernameOfWhoAskedThisBlog": "anvesh",
+                "title": "How to crabs crawl",
+                "likedByTheRequestedUser": 0,
+                "bid": 3
+            },
+            {
+                "usernameOfWhoAskedThisBlog": "prerana",
+                "totalNumberOfComments": 0,
+                "title": "Dog ",
+                "active": 1,
+                "doblog": 1660728757000,
+                "avataridOfWhoAskedThisBlog": 8,
+                "content": "&lt;p&gt;According to the American Society for the Prevention of Cruelty to Animals (ASPCA), an estimated&amp;nbsp;&lt;a href=\"https://www.aspca.org/animal-homelessness/shelter-intake-and-surrender/pet-statistics\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;78 million&lt;/a&gt;&amp;nbsp;dogs are owned as pets in the United States.&lt;/p&gt;&lt;p&gt;It is unclear when dogs were first domesticated, but&amp;nbsp;&lt;a href=\"https://www.nature.com/articles/ncomms16082\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;a studyTrusted Source&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;published last year claims that, at least in Europe, dogs were tamed 20,000–40,000 years ago.&lt;/p&gt;&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;",
+                "tags": null,
+                "updatedat": 1660728757000,
+                "totalNumberOfLikes": 0,
+                "bid": 4,
+                "disLikedByTheRequestedUser": 0,
+                "totalNumberOfDislikes": 0,
+                "blogOwnedByTheRequestedUser": 0,
+                "userid": 22,
+                "likedByTheRequestedUser": 0
+            }
+        ],
+        "totalPages": 1
+    },
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getTagRelatedQuesOrEvents</t>
+  </si>
+  <si>
+    <t>{
+    "userid":21,
+    "tags":[1,2],
+    "ctype":"Q"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "eqid": 79,
+            "userid": 22,
+            "question": "&lt;h3&gt;Will I be guaranteed a room when I make my application?&lt;/h3&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;",
+            "doq": [
+                2022,
+                8,
+                14,
+                9,
+                58,
+                21
+            ],
+            "updatedat": [
+                2022,
+                8,
+                14,
+                9,
+                58,
+                21
+            ],
+            "ctype": "Q",
+            "active": 1,
+            "tags": ";1;",
+            "fromdate": null,
+            "todate": null,
+            "usernameOfWhoAskedThisQuestion": "prerana",
+            "avataridOfWhoAskedThisQuestion": 8,
+            "totalNumberOfLikes": 1,
+            "totalNumberOfDislikes": 0,
+            "totalNumberOfComments": 0,
+            "likedByTheRequestedUser": 0,
+            "disLikedByTheRequestedUser": 0,
+            "questionOwnedByTheRequestedUser": 0
+        },
+        {
+            "eqid": 78,
+            "userid": 22,
+            "question": "&lt;p&gt;&lt;span style=\"color: rgb(32, 33, 36);\"&gt;Which University has the highest acceptance rate UK?&lt;/span&gt;&lt;/p&gt;",
+            "doq": [
+                2022,
+                8,
+                14,
+                9,
+                55,
+                14
+            ],
+            "updatedat": [
+                2022,
+                8,
+                14,
+                9,
+                55,
+                14
+            ],
+            "ctype": "Q",
+            "active": 1,
+            "tags": ";2;",
+            "fromdate": null,
+            "todate": null,
+            "usernameOfWhoAskedThisQuestion": "prerana",
+            "avataridOfWhoAskedThisQuestion": 8,
+            "totalNumberOfLikes": 1,
+            "totalNumberOfDislikes": 0,
+            "totalNumberOfComments": 0,
+            "likedByTheRequestedUser": 0,
+            "disLikedByTheRequestedUser": 0,
+            "questionOwnedByTheRequestedUser": 0
+        }
+    ],
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the main page, send empty tags </t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getTopLikedBlogs</t>
+  </si>
+  <si>
+    <t>{
+    "userid":21
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "title": "fs",
+            "updatedat": 1660731454000,
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "totalNumberOfComments": 0,
+            "tags": ";2;1;9;",
+            "active": 1,
+            "avataridOfWhoAskedThisBlog": 8,
+            "totalNumberOfLikes": 0,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "bid": 6,
+            "blogOwnedByTheRequestedUser": 0,
+            "userid": 22,
+            "likedByTheRequestedUser": 0,
+            "content": "&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;",
+            "doblog": 1660731454000
+        },
+        {
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "totalNumberOfComments": 0,
+            "active": 1,
+            "tags": ";Maths;Education;Any;Festivals;",
+            "avataridOfWhoAskedThisBlog": 8,
+            "doblog": 1660731416000,
+            "totalNumberOfLikes": 0,
+            "updatedat": 1660731416000,
+            "disLikedByTheRequestedUser": 0,
+            "bid": 5,
+            "totalNumberOfDislikes": 0,
+            "blogOwnedByTheRequestedUser": 0,
+            "userid": 22,
+            "title": "Doggggg",
+            "likedByTheRequestedUser": 0,
+            "content": "&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;"
+        },
+        {
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "totalNumberOfComments": 0,
+            "title": "Dog ",
+            "active": 1,
+            "doblog": 1660728757000,
+            "avataridOfWhoAskedThisBlog": 8,
+            "content": "&lt;p&gt;According to the American Society for the Prevention of Cruelty to Animals (ASPCA), an estimated&amp;nbsp;&lt;a href=\"https://www.aspca.org/animal-homelessness/shelter-intake-and-surrender/pet-statistics\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;78 million&lt;/a&gt;&amp;nbsp;dogs are owned as pets in the United States.&lt;/p&gt;&lt;p&gt;It is unclear when dogs were first domesticated, but&amp;nbsp;&lt;a href=\"https://www.nature.com/articles/ncomms16082\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;a studyTrusted Source&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;published last year claims that, at least in Europe, dogs were tamed 20,000–40,000 years ago.&lt;/p&gt;&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;",
+            "tags": null,
+            "updatedat": 1660728757000,
+            "totalNumberOfLikes": 0,
+            "bid": 4,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "blogOwnedByTheRequestedUser": 0,
+            "userid": 22,
+            "likedByTheRequestedUser": 0
+        },
+        {
+            "avataridOfWhoAskedThisBlog": 4,
+            "totalNumberOfComments": 0,
+            "active": 1,
+            "doblog": 1659253535000,
+            "tags": null,
+            "totalNumberOfLikes": 0,
+            "updatedat": 1659253535000,
+            "userid": 21,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "blogOwnedByTheRequestedUser": 1,
+            "content": "21-3",
+            "usernameOfWhoAskedThisBlog": "anvesh",
+            "title": "How to crabs crawl",
+            "likedByTheRequestedUser": 0,
+            "bid": 3
+        },
+        {
+            "avataridOfWhoAskedThisBlog": 4,
+            "updatedat": 1659252786000,
+            "totalNumberOfComments": 0,
+            "active": 1,
+            "tags": null,
+            "totalNumberOfLikes": 0,
+            "userid": 21,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "blogOwnedByTheRequestedUser": 1,
+            "usernameOfWhoAskedThisBlog": "anvesh",
+            "title": "How to crabs crawl",
+            "content": "21-2",
+            "doblog": 1659252786000,
+            "bid": 2,
+            "likedByTheRequestedUser": 0
+        }
+    ],
+    "success": true,
+    "reason": null
 }</t>
   </si>
 </sst>
@@ -763,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -812,6 +1084,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,35 +1737,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>6</v>
@@ -1501,10 +1776,10 @@
     </row>
     <row r="20" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
@@ -1513,85 +1788,85 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="23" t="s">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="13" t="s">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="13" t="s">
+    <row r="28" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -1600,12 +1875,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>6</v>
@@ -1614,82 +1889,82 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B32" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
+    <row r="33" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="D34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B37" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>6</v>
@@ -1700,10 +1975,10 @@
     </row>
     <row r="38" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>6</v>
@@ -1712,42 +1987,90 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B44" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
-    <hyperlink ref="B20" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
-    <hyperlink ref="B23" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
-    <hyperlink ref="B26" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
-    <hyperlink ref="B31" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
-    <hyperlink ref="B32" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
-    <hyperlink ref="B27" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
-    <hyperlink ref="B28" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
-    <hyperlink ref="B36" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
-    <hyperlink ref="B37" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
+    <hyperlink ref="B27" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B33" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
+    <hyperlink ref="B28" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
+    <hyperlink ref="B38" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
     <hyperlink ref="B12" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
+    <hyperlink ref="B43" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
+    <hyperlink ref="B44" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7BA10-045E-47DF-AFFA-F375C164EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3FD5F-A553-41DA-A914-1E96A11F6E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3FD5F-A553-41DA-A914-1E96A11F6E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362ECE7-CB0B-4288-90E4-68796D7CC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -883,6 +883,174 @@
             "doblog": 1659252786000,
             "bid": 2,
             "likedByTheRequestedUser": 0
+        }
+    ],
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getMyBlogs</t>
+  </si>
+  <si>
+    <t>{
+    "userid":22
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "title": "fs",
+            "totalNumberOfComments": 4,
+            "updatedat": 1660731454000,
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "tags": ";2;1;9;",
+            "active": 1,
+            "avataridOfWhoAskedThisBlog": 8,
+            "totalNumberOfLikes": 1,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "bid": 6,
+            "userid": 22,
+            "blogOwnedByTheRequestedUser": 1,
+            "content": "&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;",
+            "doblog": 1660731454000,
+            "likedByTheRequestedUser": 1
+        },
+        {
+            "totalNumberOfComments": 2,
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "active": 1,
+            "tags": ";Maths;Education;Any;Festivals;",
+            "avataridOfWhoAskedThisBlog": 8,
+            "doblog": 1660731416000,
+            "totalNumberOfLikes": 0,
+            "updatedat": 1660731416000,
+            "disLikedByTheRequestedUser": 0,
+            "bid": 5,
+            "totalNumberOfDislikes": 0,
+            "userid": 22,
+            "blogOwnedByTheRequestedUser": 1,
+            "title": "Doggggg",
+            "likedByTheRequestedUser": 0,
+            "content": "&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;"
+        },
+        {
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "totalNumberOfComments": 0,
+            "title": "Dog ",
+            "active": 1,
+            "doblog": 1660728757000,
+            "avataridOfWhoAskedThisBlog": 8,
+            "content": "&lt;p&gt;According to the American Society for the Prevention of Cruelty to Animals (ASPCA), an estimated&amp;nbsp;&lt;a href=\"https://www.aspca.org/animal-homelessness/shelter-intake-and-surrender/pet-statistics\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;78 million&lt;/a&gt;&amp;nbsp;dogs are owned as pets in the United States.&lt;/p&gt;&lt;p&gt;It is unclear when dogs were first domesticated, but&amp;nbsp;&lt;a href=\"https://www.nature.com/articles/ncomms16082\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;a studyTrusted Source&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;published last year claims that, at least in Europe, dogs were tamed 20,000–40,000 years ago.&lt;/p&gt;&lt;p&gt;It is likely that humans and dogs have shared a special bond of friendship and mutual support ever since at least the Neolithic period — but why has this bond been so long-lasting?&lt;/p&gt;&lt;p&gt;Of course, these cousins of the wolves have historically been great at keeping us and our dwellings safe, guarding our houses, our cattle, and our various material goods. Throughout history, humans have also trained dogs to assist them with hunting, or they have bred numerous quirky-looking species for their cuteness or elegance.&lt;/p&gt;&lt;p&gt;However, dogs are also — and might have always been — truly valued companions, famed for their loyalty and seemingly constant willingness to put a smile on their owners’ faces.&lt;/p&gt;&lt;p&gt;In this Spotlight, we outline the research that shows how our dogs make us happier, more resilient when facing&amp;nbsp;&lt;a href=\"https://www.medicalnewstoday.com/articles/145855.php\" target=\"_blank\" style=\"color: rgb(61, 81, 145);\"&gt;stress&lt;/a&gt;, and physically healthier, to name but a few ways in which these much-loved quadrupeds support our well-being.&lt;/p&gt;",
+            "tags": null,
+            "updatedat": 1660728757000,
+            "totalNumberOfLikes": 0,
+            "bid": 4,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "userid": 22,
+            "blogOwnedByTheRequestedUser": 1,
+            "likedByTheRequestedUser": 0
+        },
+        {
+            "usernameOfWhoAskedThisBlog": "prerana",
+            "totalNumberOfComments": 0,
+            "active": 1,
+            "avataridOfWhoAskedThisBlog": 8,
+            "doblog": 1658925137000,
+            "tags": null,
+            "updatedat": 1658925137000,
+            "totalNumberOfLikes": 0,
+            "disLikedByTheRequestedUser": 0,
+            "totalNumberOfDislikes": 0,
+            "content": "21-1",
+            "userid": 22,
+            "blogOwnedByTheRequestedUser": 1,
+            "bid": 1,
+            "title": "How to crabs crawl",
+            "likedByTheRequestedUser": 0
+        }
+    ],
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/feed/getMyQuestionsOrEvents</t>
+  </si>
+  <si>
+    <t>{
+    "userid":22,
+    "ctype":"E"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "updatedat": 1660736756000,
+            "totalNumberOfComments": 3,
+            "totalNumberOfDislikes": 1,
+            "fromdate": 1660779943000,
+            "active": 1,
+            "tags": ";;",
+            "ctype": "E",
+            "totalNumberOfLikes": 0,
+            "isEditable": 0,
+            "avataridOfWhoAskedThisQuestion": 8,
+            "eqid": 80,
+            "usernameOfWhoAskedThisQuestion": "prerana",
+            "disLikedByTheRequestedUser": 1,
+            "doq": 1660736756000,
+            "todate": 1660712400000,
+            "userid": 22,
+            "likedByTheRequestedUser": 0,
+            "question": "&lt;p&gt;Where are the grad applications &lt;/p&gt;",
+            "questionOwnedByTheRequestedUser": 1
+        },
+        {
+            "updatedat": 1660736803000,
+            "totalNumberOfComments": 0,
+            "active": 1,
+            "todate": 1661403600000,
+            "totalNumberOfLikes": 1,
+            "question": "&lt;p&gt;g1&lt;/p&gt;",
+            "tags": ";5;4;2;3;",
+            "ctype": "E",
+            "isEditable": 1,
+            "avataridOfWhoAskedThisQuestion": 8,
+            "disLikedByTheRequestedUser": 0,
+            "usernameOfWhoAskedThisQuestion": "prerana",
+            "totalNumberOfDislikes": 0,
+            "eqid": 82,
+            "userid": 22,
+            "doq": 1660736803000,
+            "fromdate": 1660779992000,
+            "likedByTheRequestedUser": 1,
+            "questionOwnedByTheRequestedUser": 1
+        },
+        {
+            "doq": 1660736784000,
+            "fromdate": 1660779971000,
+            "totalNumberOfComments": 0,
+            "question": "&lt;p&gt;Where are the gard 1&lt;/p&gt;",
+            "active": 1,
+            "todate": 1661403600000,
+            "totalNumberOfLikes": 1,
+            "tags": ";;",
+            "ctype": "E",
+            "isEditable": 1,
+            "avataridOfWhoAskedThisQuestion": 8,
+            "disLikedByTheRequestedUser": 0,
+            "eqid": 81,
+            "usernameOfWhoAskedThisQuestion": "prerana",
+            "totalNumberOfDislikes": 0,
+            "userid": 22,
+            "updatedat": 1660736784000,
+            "likedByTheRequestedUser": 1,
+            "questionOwnedByTheRequestedUser": 1
         }
     ],
     "success": true,
@@ -1035,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1084,9 +1252,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,7 +1903,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2018,7 +2183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -2035,7 +2200,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="13" t="s">
         <v>111</v>
       </c>
@@ -2047,6 +2212,34 @@
       </c>
       <c r="E44" s="11" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2068,9 +2261,10 @@
     <hyperlink ref="B17" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
     <hyperlink ref="B43" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
     <hyperlink ref="B44" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
+    <hyperlink ref="B48" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362ECE7-CB0B-4288-90E4-68796D7CC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B409DE4-BED9-42BE-AFC1-A6F7D650244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -267,14 +267,6 @@
     "ctype":"Q",
     "content":"dont know :) how ",
     "eqid":2
-}</t>
-  </si>
-  <si>
-    <t>{
-    "id":null,
-    "userid":2,
-    "title":"How to crabs crawl",
-    "content":"e were making a sand castle on the Wonderopolis beach the other day when we saw a group of crabs gathering nearby. The group appeared to consist of an adult crab and several younger crabs. Our curiosity got the best of us, so we decided to eavesdrop to try to hear what they were talking about. Kid Crab: Mrs. Crab? What are we going to learn about in class today?Mrs. Crab: Well, Patty, I'm so glad you asked. Today, we're going to learn why human beings walk frontways.Kid Crab: That's awesome, Mrs. Crab! I've always WONDERed about that. They look so funny when they walk down the beach like that!Apparently, we stumbled upon a class of crabs with their teacher about to learn more about human beings and the way we move. From their perspective, we must look as funny to crabs as they do to us. Let's take a closer look at why crabs move the way they do.If you've ever seen crabs moving along the shoreline, you've probably noticed that they move differently than human beings. Instead of walking forward on two legs, they move quickly sideways in a flurry with their multiple legs.Crabs move sideways for the same reason humans move forward: that's how their bodies were built to move. Human beings have knees that bend forward. Therefore, it's only natural that we would move forward with each step we take.Crabs, on the other hand, have multiple legs and they're located on the sides of their bodies. In addition, their leg joints bend outward. Given this particular design of their bodies, it's most efficient and natural for crabs to move sideways.Not all crabs move sideways, however. There are a few species of crabs that can move forward, because their bodies are shaped in a way that makes them longer than they are wide. Examples of these crabs include raninids, Libinia emarginata, and Mictyris platycheles.In addition, most crabs have a front pair of legs that are mainly used for defense and grasping food. These front legs can be used to move forward, but doing so is not very efficient and doesn't allow the crab to move quickly. Thus, most crabs move sideways since they can move quickly and most efficiently that way."
 }</t>
   </si>
   <si>
@@ -1055,6 +1047,33 @@
     ],
     "success": true,
     "reason": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "bid":null,
+    "userid":2,
+    "title":"How to crabs crawl",
+    "content":"e were making a sand castle on the Wonderopolis beach the other day when we saw a group of crabs gathering nearby"
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/blog/updateBlog</t>
+  </si>
+  <si>
+    <t>{
+    "bid":8,
+    "title":"Checkiljng update",
+    "content":"ud one",
+    "tags":";1;"
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/quoraStudent/blog/deleteBlog</t>
+  </si>
+  <si>
+    <t>{
+    "bid":8
 }</t>
   </si>
 </sst>
@@ -1685,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,14 +1864,14 @@
     </row>
     <row r="12" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1890,30 +1909,30 @@
     </row>
     <row r="16" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1969,16 +1988,16 @@
     </row>
     <row r="22" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1996,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
@@ -2005,61 +2024,61 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+    <row r="25" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B26" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="13" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>6</v>
@@ -2068,47 +2087,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>77</v>
-      </c>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B34" s="13" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>6</v>
@@ -2117,47 +2136,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="11" t="s">
+    <row r="35" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>47</v>
-      </c>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>6</v>
@@ -2166,80 +2185,108 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="17" t="s">
-        <v>96</v>
-      </c>
+    <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B40" s="13" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="B42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="11" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="11" t="s">
+    </row>
+    <row r="50" spans="2:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2249,22 +2296,24 @@
     <hyperlink ref="B20" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
     <hyperlink ref="B21" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
     <hyperlink ref="B24" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
-    <hyperlink ref="B27" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
-    <hyperlink ref="B32" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
-    <hyperlink ref="B33" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B34" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B35" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
     <hyperlink ref="B22" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
-    <hyperlink ref="B29" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
-    <hyperlink ref="B37" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
-    <hyperlink ref="B38" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
+    <hyperlink ref="B30" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
+    <hyperlink ref="B31" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
+    <hyperlink ref="B39" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
+    <hyperlink ref="B40" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
     <hyperlink ref="B12" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
-    <hyperlink ref="B43" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
-    <hyperlink ref="B44" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
-    <hyperlink ref="B48" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
+    <hyperlink ref="B45" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
+    <hyperlink ref="B46" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
+    <hyperlink ref="B50" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{7B93EE19-A4D3-4CBC-B7A2-AD42DB6666B2}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{ED9DFA77-324B-46F5-B321-C2313CC8E568}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B409DE4-BED9-42BE-AFC1-A6F7D650244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E0270-219C-4165-802A-1DAE32CBA302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apis" sheetId="1" r:id="rId1"/>
-    <sheet name="screens" sheetId="3" r:id="rId2"/>
-    <sheet name="Usecases" sheetId="2" r:id="rId3"/>
+    <sheet name="CSS changes" sheetId="4" r:id="rId2"/>
+    <sheet name="screens" sheetId="3" r:id="rId3"/>
+    <sheet name="Usecases" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ANVESH KARNATI</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9A7DD271-1A70-4A4F-A087-659D88B4C3E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ANVESH KARNATI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -1076,12 +1111,111 @@
     "bid":8
 }</t>
   </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>CSS changes</t>
+  </si>
+  <si>
+    <t>Login screen</t>
+  </si>
+  <si>
+    <t>Signup and forgot alignment</t>
+  </si>
+  <si>
+    <t>password min-6</t>
+  </si>
+  <si>
+    <t>Anvesh</t>
+  </si>
+  <si>
+    <t>Home Screen</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Show Best Answer Width</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>tags ,date</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>background,Title</t>
+  </si>
+  <si>
+    <t>Right side</t>
+  </si>
+  <si>
+    <t>title width</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Long questions</t>
+  </si>
+  <si>
+    <t>height mat card</t>
+  </si>
+  <si>
+    <t>Update Avatar</t>
+  </si>
+  <si>
+    <t>Update Password</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>my Questions ,My Events, My Blogs</t>
+  </si>
+  <si>
+    <t>MyBlogs</t>
+  </si>
+  <si>
+    <t>dislike Ctype</t>
+  </si>
+  <si>
+    <t>Share button</t>
+  </si>
+  <si>
+    <t>Facebook,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questions </t>
+  </si>
+  <si>
+    <t>Comments get comments</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Realated questin title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1283,19 @@
       <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1706,23 +1853,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="118.33203125" customWidth="1"/>
-    <col min="3" max="3" width="76.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="102.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="57.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="118.36328125" customWidth="1"/>
+    <col min="3" max="3" width="76.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" customWidth="1"/>
+    <col min="5" max="5" width="102.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" customWidth="1"/>
+    <col min="8" max="8" width="57.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1736,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
       <c r="B2" s="22" t="s">
         <v>4</v>
@@ -1746,7 +1893,7 @@
       <c r="E2" s="16"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="52.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
         <v>13</v>
@@ -1812,7 +1959,7 @@
       <c r="E7" s="16"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -1824,7 +1971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
         <v>31</v>
@@ -1834,7 +1981,7 @@
       <c r="E9" s="16"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
@@ -1848,7 +1995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B11" s="19" t="s">
         <v>33</v>
       </c>
@@ -1862,7 +2009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B12" s="20" t="s">
         <v>100</v>
       </c>
@@ -1874,7 +2021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="22" t="s">
         <v>59</v>
@@ -1884,7 +2031,7 @@
       <c r="E13" s="16"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +2045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
         <v>60</v>
@@ -1907,7 +2054,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="21" t="s">
         <v>98</v>
       </c>
@@ -1921,7 +2068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="21" t="s">
         <v>103</v>
       </c>
@@ -1935,7 +2082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A18" s="16"/>
       <c r="B18" s="22" t="s">
         <v>55</v>
@@ -1944,7 +2091,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
@@ -1958,7 +2105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B20" s="21" t="s">
         <v>61</v>
       </c>
@@ -1972,7 +2119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B21" s="21" t="s">
         <v>63</v>
       </c>
@@ -1986,7 +2133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="21" t="s">
         <v>77</v>
       </c>
@@ -2000,7 +2147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A23" s="14"/>
       <c r="B23" s="23" t="s">
         <v>65</v>
@@ -2010,7 +2157,7 @@
       <c r="E23" s="16"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="21" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B25" s="21" t="s">
         <v>120</v>
       </c>
@@ -2038,7 +2185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B26" s="21" t="s">
         <v>122</v>
       </c>
@@ -2052,14 +2199,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="129.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="13" t="s">
         <v>70</v>
       </c>
@@ -2073,7 +2220,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="13" t="s">
         <v>80</v>
       </c>
@@ -2087,7 +2234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="13" t="s">
         <v>83</v>
       </c>
@@ -2101,7 +2248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="13" t="s">
         <v>84</v>
       </c>
@@ -2115,14 +2262,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
         <v>73</v>
       </c>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B34" s="13" t="s">
         <v>67</v>
       </c>
@@ -2136,7 +2283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="189.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B35" s="13" t="s">
         <v>74</v>
       </c>
@@ -2150,7 +2297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B36" s="13" t="s">
         <v>96</v>
       </c>
@@ -2164,14 +2311,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="30.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B39" s="13" t="s">
         <v>87</v>
       </c>
@@ -2185,7 +2332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B40" s="13" t="s">
         <v>89</v>
       </c>
@@ -2199,7 +2346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.5">
       <c r="B41" s="13" t="s">
         <v>92</v>
       </c>
@@ -2213,7 +2360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="184.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="17" t="s">
         <v>95</v>
       </c>
@@ -2230,7 +2377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="139.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -2247,7 +2394,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="109.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B46" s="13" t="s">
         <v>110</v>
       </c>
@@ -2261,7 +2408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="94.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B48" s="13" t="s">
         <v>113</v>
       </c>
@@ -2275,7 +2422,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="58.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B50" s="13" t="s">
         <v>116</v>
       </c>
@@ -2318,6 +2465,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7245DAF9-78B3-4375-8161-A3FD51081141}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" customWidth="1"/>
+    <col min="3" max="3" width="62.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08247516-65B4-413C-AEED-2347E8B6A214}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2325,18 +2635,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
@@ -2347,7 +2657,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -2373,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2389,7 +2699,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2411,7 +2721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2429,7 +2739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="C6" s="9" t="s">
         <v>44</v>
@@ -2456,7 +2766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EA5B18-3AD6-4C08-9419-C4BAD153FE79}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -2464,62 +2774,62 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Support\3rdaug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD46045-6F5F-46AD-AF32-E63D75FFD1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7637F3-2EC8-49F9-BE0B-006E3CB83404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -1227,6 +1227,33 @@
     "userid":8,
     "password":"1234!"
 }</t>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "id": 9,
+            "unvcode": "21",
+            "username": "prerana",
+            "useravatarid": 8,
+            "numberoflikes": 2,
+            "position": 1
+        },
+        {
+            "id": 10,
+            "unvcode": "21",
+            "username": "liger",
+            "useravatarid": 5,
+            "numberoflikes": 1,
+            "position": 2
+        }
+    ],
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
+    <t>/quoraStudent/info/getLeaderboard?unvcode=21</t>
   </si>
 </sst>
 </file>
@@ -1869,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1995,58 +2022,56 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.4">
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.4">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>6</v>
@@ -2055,108 +2080,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="22" t="s">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22" t="s">
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="22" t="s">
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B22" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
@@ -2167,10 +2192,10 @@
     </row>
     <row r="23" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B23" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
@@ -2179,50 +2204,50 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="23" t="s">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B27" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -2233,10 +2258,10 @@
     </row>
     <row r="28" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B28" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -2245,47 +2270,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+    <row r="29" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B29" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="13" t="s">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
+    <row r="33" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>6</v>
@@ -2294,12 +2319,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>6</v>
@@ -2308,82 +2333,82 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
+    <row r="38" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
+    <row r="39" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B39" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B41" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B42" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>6</v>
@@ -2394,10 +2419,10 @@
     </row>
     <row r="43" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B43" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>6</v>
@@ -2406,104 +2431,118 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B44" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="D45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="D48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="13" t="s">
+    <row r="49" spans="2:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="13" t="s">
+    <row r="51" spans="2:5" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="D51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="13" t="s">
+    <row r="53" spans="2:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
-    <hyperlink ref="B23" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
-    <hyperlink ref="B31" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
-    <hyperlink ref="B36" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
-    <hyperlink ref="B37" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
-    <hyperlink ref="B24" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
-    <hyperlink ref="B32" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
-    <hyperlink ref="B33" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
-    <hyperlink ref="B41" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
-    <hyperlink ref="B42" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
-    <hyperlink ref="B47" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
-    <hyperlink ref="B48" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
-    <hyperlink ref="B52" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
-    <hyperlink ref="B27" r:id="rId19" xr:uid="{7B93EE19-A4D3-4CBC-B7A2-AD42DB6666B2}"/>
-    <hyperlink ref="B28" r:id="rId20" xr:uid="{ED9DFA77-324B-46F5-B321-C2313CC8E568}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
+    <hyperlink ref="B32" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B37" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B38" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
+    <hyperlink ref="B33" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
+    <hyperlink ref="B42" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
+    <hyperlink ref="B43" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
+    <hyperlink ref="B48" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
+    <hyperlink ref="B49" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
+    <hyperlink ref="B53" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
+    <hyperlink ref="B28" r:id="rId19" xr:uid="{7B93EE19-A4D3-4CBC-B7A2-AD42DB6666B2}"/>
+    <hyperlink ref="B29" r:id="rId20" xr:uid="{ED9DFA77-324B-46F5-B321-C2313CC8E568}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94E0270-219C-4165-802A-1DAE32CBA302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B81DD-9F2B-4A4C-9FA5-6B2E1678EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,7 +1298,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1420,6 +1426,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2469,7 +2476,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2494,17 +2501,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="24" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2519,8 +2526,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
         <v>132</v>
       </c>
     </row>

--- a/Infofiles/Project_Apis_Quora.xlsx
+++ b/Infofiles/Project_Apis_Quora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UK\QuoraStudent\Infofiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7637F3-2EC8-49F9-BE0B-006E3CB83404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FAB0B4-47AB-4C0E-92AE-9947261DE8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
   <si>
     <t xml:space="preserve">params </t>
   </si>
@@ -1229,31 +1229,41 @@
 }</t>
   </si>
   <si>
+    <t>/quoraStudent/info/getLeaderboard?unvcode=21</t>
+  </si>
+  <si>
+    <t>/quoraStudent/questions/getQuestionsCount?unvcode=21</t>
+  </si>
+  <si>
+    <t>{
+    "data": {
+        "count": 4
+    },
+    "success": true,
+    "reason": null
+}</t>
+  </si>
+  <si>
     <t>{
     "data": [
         {
-            "id": 9,
+            "useravatarid": 5,
+            "numberoflikes": 1,
             "unvcode": "21",
-            "username": "prerana",
-            "useravatarid": 8,
-            "numberoflikes": 2,
-            "position": 1
+            "position": 1,
+            "username": "liger"
         },
         {
-            "id": 10,
+            "useravatarid": 8,
+            "numberoflikes": 1,
             "unvcode": "21",
-            "username": "liger",
-            "useravatarid": 5,
-            "numberoflikes": 1,
-            "position": 2
+            "position": 2,
+            "username": "prerana"
         }
     ],
     "success": true,
     "reason": null
 }</t>
-  </si>
-  <si>
-    <t>/quoraStudent/info/getLeaderboard?unvcode=21</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1440,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1896,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,70 +2032,68 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B10" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.4">
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.4">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
@@ -2094,108 +2102,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B16" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="22" t="s">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="22" t="s">
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
+    <row r="22" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B23" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
@@ -2206,10 +2214,10 @@
     </row>
     <row r="24" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
@@ -2218,50 +2226,50 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="23" t="s">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="164.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B28" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -2272,10 +2280,10 @@
     </row>
     <row r="29" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B29" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>6</v>
@@ -2284,47 +2292,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+    <row r="30" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B30" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="13" t="s">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>6</v>
@@ -2333,12 +2341,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>6</v>
@@ -2347,82 +2355,82 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
+    <row r="36" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
+    <row r="39" spans="1:8" ht="189.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B39" s="13" t="s">
+    <row r="40" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" ht="147" x14ac:dyDescent="0.4">
-      <c r="B42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B43" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>6</v>
@@ -2433,10 +2441,10 @@
     </row>
     <row r="44" spans="1:8" ht="147" x14ac:dyDescent="0.4">
       <c r="B44" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>6</v>
@@ -2445,104 +2453,118 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:8" ht="147" x14ac:dyDescent="0.4">
+      <c r="B45" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="184.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="D46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:5" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="13" t="s">
+    <row r="50" spans="1:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="D50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="13" t="s">
+    <row r="52" spans="1:5" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="D52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="13" t="s">
+    <row r="54" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="11" t="s">
+      <c r="D54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
-    <hyperlink ref="B23" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
-    <hyperlink ref="B24" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
-    <hyperlink ref="B27" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
-    <hyperlink ref="B32" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
-    <hyperlink ref="B37" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
-    <hyperlink ref="B38" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
-    <hyperlink ref="B33" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
-    <hyperlink ref="B34" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
-    <hyperlink ref="B42" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
-    <hyperlink ref="B43" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
-    <hyperlink ref="B48" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
-    <hyperlink ref="B49" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
-    <hyperlink ref="B53" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{7B93EE19-A4D3-4CBC-B7A2-AD42DB6666B2}"/>
-    <hyperlink ref="B29" r:id="rId20" xr:uid="{ED9DFA77-324B-46F5-B321-C2313CC8E568}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{7692C306-4A78-4B2D-948D-3A51CCED86C1}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{937B7D2A-8852-4A7B-82AD-E8F17830A145}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{FF691430-CFF3-45C6-9847-B201285A1D75}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{C7C540F5-786B-4C6A-B845-D1AE5BE717D8}"/>
+    <hyperlink ref="B28" r:id="rId5" xr:uid="{11ACBF41-FA7A-455E-8522-698BD9AA4BB0}"/>
+    <hyperlink ref="B33" r:id="rId6" xr:uid="{D169E3B6-2393-46B8-8832-573FD077AEBC}"/>
+    <hyperlink ref="B38" r:id="rId7" xr:uid="{4BA1F53D-94A7-4CF9-AE6A-D7769CF57EA8}"/>
+    <hyperlink ref="B39" r:id="rId8" xr:uid="{0EFEC909-D5F0-41FA-9A9B-EC666481CA2E}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{F31C776E-2D88-4733-858D-B77E048242B0}"/>
+    <hyperlink ref="B34" r:id="rId10" xr:uid="{868DAF71-670D-4295-97CF-8AAFD1D42B29}"/>
+    <hyperlink ref="B35" r:id="rId11" xr:uid="{1F578605-7B3E-4D44-9344-D72537D11241}"/>
+    <hyperlink ref="B43" r:id="rId12" xr:uid="{F4588035-ED6A-4435-B687-8F4B6BDFBE70}"/>
+    <hyperlink ref="B44" r:id="rId13" xr:uid="{EC4A5611-6A38-4316-ABAB-872696808656}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{8A1B41B6-89A6-4295-8C74-E3D434B385D5}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{F95D45EF-F8F2-4943-981F-3B229D81B0AA}"/>
+    <hyperlink ref="B49" r:id="rId16" xr:uid="{0D74A60E-7A20-4FE2-9180-32D78707BA88}"/>
+    <hyperlink ref="B50" r:id="rId17" xr:uid="{3267A10D-8451-4D59-9427-450279B79BE7}"/>
+    <hyperlink ref="B54" r:id="rId18" xr:uid="{0020AE76-DC1F-442E-9CB5-EF3250579B55}"/>
+    <hyperlink ref="B29" r:id="rId19" xr:uid="{7B93EE19-A4D3-4CBC-B7A2-AD42DB6666B2}"/>
+    <hyperlink ref="B30" r:id="rId20" xr:uid="{ED9DFA77-324B-46F5-B321-C2313CC8E568}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
